--- a/src/advent/y2024/Day11.xlsx
+++ b/src/advent/y2024/Day11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/Documents/dev/eclipse-workspace/advent/src/advent/y2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BCA6936-2438-4147-8E74-D95C293BD9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E6384B-1218-BE40-9CFB-814E3B634D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11680" yWindow="860" windowWidth="21780" windowHeight="12820" xr2:uid="{F09C396D-CF4B-2D47-8D45-C73B9F2D7FD3}"/>
+    <workbookView xWindow="45180" yWindow="3840" windowWidth="21780" windowHeight="12820" xr2:uid="{F09C396D-CF4B-2D47-8D45-C73B9F2D7FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>slope</t>
   </si>
@@ -47,23 +47,40 @@
     <t>hours</t>
   </si>
   <si>
-    <t>log(hours)</t>
+    <t>seconds</t>
   </si>
   <si>
-    <t>seconds</t>
+    <t>ln(seconds)</t>
+  </si>
+  <si>
+    <t>Projection</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>PT2H55M28.603</t>
+  </si>
+  <si>
+    <t>stones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3B2322"/>
+      <name val="Courier"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,8 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -254,34 +272,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.1855960038377215E-3</c:v>
+                  <c:v>9.6472856894416845E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1260015981746435E-2</c:v>
+                  <c:v>5.4697139847350897E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44034928473802781</c:v>
+                  <c:v>0.41185501273394548</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1653190006850589</c:v>
+                  <c:v>3.1011594388201469</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.752947996857806</c:v>
+                  <c:v>23.350911285850824</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>163.55275485209361</c:v>
+                  <c:v>175.82619295676216</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1175.6500135016818</c:v>
+                  <c:v>1323.9247818307158</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8450.8081535919882</c:v>
+                  <c:v>9968.8038424203623</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60746.104392159454</c:v>
+                  <c:v>75062.459297148729</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>436655.18513216678</c:v>
+                  <c:v>565200.48792214366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -323,7 +341,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$A$6:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -362,7 +380,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>Sheet1!$B$6:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -386,6 +404,12 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1308.9110000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10528.602999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80914.413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1530,28 +1554,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04013D8B-79A1-8045-915E-B3972A46430C}">
-  <dimension ref="B2:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="D2">
-        <f>LN(C2)</f>
-        <v>-2.6172958378337459</v>
-      </c>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="F2" t="s">
         <v>0</v>
       </c>
@@ -1559,268 +1582,333 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>0.377</v>
-      </c>
-      <c r="D3">
-        <f>LN(C3)</f>
-        <v>-0.97551009153412627</v>
-      </c>
+    <row r="3" spans="1:8">
       <c r="F3">
-        <f>SLOPE(D4:D8,B4:B8)</f>
-        <v>0.39448817573166867</v>
+        <f>SLOPE(C8:C14,A8:A14)</f>
+        <v>0.40377199129923624</v>
       </c>
       <c r="G3">
-        <f>INTERCEPT(D4:D8,B4:B8)</f>
-        <v>-16.599714067302067</v>
+        <f>INTERCEPT(C8:C14,A8:A14)</f>
+        <v>-17.03796355437715</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>40</v>
-      </c>
-      <c r="C4">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="D4">
-        <f>LN(C4)</f>
-        <v>-0.66943065394262924</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>45</v>
-      </c>
-      <c r="C5">
-        <v>2.8140000000000001</v>
-      </c>
-      <c r="D5">
-        <f>LN(C5)</f>
-        <v>1.0346069586921973</v>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
       </c>
       <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
         <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
       </c>
       <c r="H5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>25</v>
+      </c>
       <c r="B6">
-        <v>50</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="C6">
-        <v>20.390999999999998</v>
+        <f>LN(B6)</f>
+        <v>-2.6172958378337459</v>
       </c>
       <c r="D6">
-        <f>LN(C6)</f>
-        <v>3.015093627032611</v>
+        <v>216042</v>
       </c>
       <c r="E6">
         <v>25</v>
       </c>
       <c r="F6">
         <f>EXP(G6)</f>
-        <v>1.1855960038377215E-3</v>
+        <v>9.6472856894416845E-4</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G10" si="0">E6*$F$3+$G$3</f>
-        <v>-6.7375096740103508</v>
+        <v>-6.9436637718962437</v>
       </c>
       <c r="H6">
         <f>F6/3600</f>
-        <v>3.2933222328825597E-7</v>
+        <v>2.679801580400468E-7</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>35</v>
+      </c>
       <c r="B7">
+        <v>0.377</v>
+      </c>
+      <c r="C7">
+        <f>LN(B7)</f>
+        <v>-0.97551009153412627</v>
+      </c>
+      <c r="D7">
+        <v>14017007</v>
+      </c>
+      <c r="E7">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F15" si="1">EXP(G7)</f>
+        <v>5.4697139847350897E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-2.905943858903882</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H15" si="2">F7/3600</f>
+        <v>1.5193649957597471E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="C8">
+        <f>LN(B8)</f>
+        <v>-0.66943065394262924</v>
+      </c>
+      <c r="D8">
+        <v>113339462</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.41185501273394548</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-0.8870839024076993</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>1.1440417020387374E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>2.8140000000000001</v>
+      </c>
+      <c r="C9">
+        <f>LN(B9)</f>
+        <v>1.0346069586921973</v>
+      </c>
+      <c r="D9">
+        <v>915442018</v>
+      </c>
+      <c r="E9">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>3.1011594388201469</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.1317760540884798</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>8.6143317745004076E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>20.390999999999998</v>
+      </c>
+      <c r="C10">
+        <f>LN(B10)</f>
+        <v>3.015093627032611</v>
+      </c>
+      <c r="D10">
+        <v>7401411189</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>23.350911285850824</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>3.1506360105846625</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>6.486364246069673E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
         <v>55</v>
       </c>
-      <c r="C7">
+      <c r="B11">
         <f>2*60+38.579</f>
         <v>158.57900000000001</v>
       </c>
-      <c r="D7">
-        <f>LN(C7)</f>
+      <c r="C11">
+        <f>LN(B11)</f>
         <v>5.0662528918589267</v>
       </c>
-      <c r="E7">
-        <v>35</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ref="F7:F15" si="1">EXP(G7)</f>
-        <v>6.1260015981746435E-2</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>-2.7926279166936627</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ref="H7:H15" si="2">F7/3600</f>
-        <v>1.7016671106040678E-5</v>
+      <c r="D11">
+        <v>59840992017</v>
+      </c>
+      <c r="E11">
+        <v>55</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>175.82619295676216</v>
+      </c>
+      <c r="G11">
+        <f>E11*$F$3+$G$3</f>
+        <v>5.1694959670808451</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>4.8840609154656156E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8">
+    <row r="12" spans="1:8">
+      <c r="A12">
         <v>60</v>
       </c>
-      <c r="C8">
+      <c r="B12">
         <f>21*60+48.911</f>
         <v>1308.9110000000001</v>
       </c>
-      <c r="D8">
-        <f>LN(C8)</f>
+      <c r="C12">
+        <f>LN(B12)</f>
         <v>7.1769507727657222</v>
       </c>
-      <c r="E8">
-        <v>40</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0.44034928473802781</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>-0.82018703803531956</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>1.2231924576056329E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>65</v>
-      </c>
-      <c r="E9">
-        <v>45</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>3.1653190006850589</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>1.1522538406230218</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>8.7925527796807196E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>70</v>
-      </c>
-      <c r="E10">
-        <v>50</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>22.752947996857806</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>3.124694719281365</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>6.3202633324605014E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>75</v>
-      </c>
-      <c r="E11">
-        <v>55</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>163.55275485209361</v>
-      </c>
-      <c r="G11">
-        <f>E11*$F$3+$G$3</f>
-        <v>5.0971355979397117</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>4.5431320792248223E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>483831071506</v>
+      </c>
       <c r="E12">
         <v>60</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>1175.6500135016818</v>
+        <v>1323.9247818307158</v>
       </c>
       <c r="G12">
         <f>E12*$F$3+$G$3</f>
-        <v>7.0695764765980549</v>
+        <v>7.1883559235770242</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>0.32656944819491163</v>
+        <v>0.3677568838418655</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <f>(2*60+55)*60+28.603</f>
+        <v>10528.602999999999</v>
+      </c>
+      <c r="C13">
+        <f>LN(B13)</f>
+        <v>9.2618509277607668</v>
+      </c>
+      <c r="D13">
+        <v>3912199617591</v>
+      </c>
       <c r="E13">
         <v>65</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>8450.8081535919882</v>
+        <v>9968.8038424203623</v>
       </c>
       <c r="G13">
         <f>E13*$F$3+$G$3</f>
-        <v>9.042017355256398</v>
+        <v>9.2072158800732069</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>2.3474467093311078</v>
+        <v>2.7691121784501007</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <f>(22*60+28)*60+34.413</f>
+        <v>80914.413</v>
+      </c>
+      <c r="C14">
+        <f>LN(B14)</f>
+        <v>11.301147245398317</v>
+      </c>
+      <c r="D14">
+        <v>31632095168460</v>
+      </c>
       <c r="E14">
         <v>70</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>60746.104392159454</v>
+        <v>75062.459297148729</v>
       </c>
       <c r="G14">
         <f>E14*$F$3+$G$3</f>
-        <v>11.014458233914741</v>
+        <v>11.226075836569386</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>16.873917886710959</v>
+        <v>20.850683138096869</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>75</v>
+      </c>
       <c r="E15">
         <v>75</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>436655.18513216678</v>
+        <v>565200.48792214366</v>
       </c>
       <c r="G15">
         <f>E15*F3+G3</f>
-        <v>12.986899112573084</v>
+        <v>13.244935793065569</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>121.29310698115744</v>
+        <v>157.00013553392878</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="17">
+      <c r="C17" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
